--- a/Tcase.xlsx
+++ b/Tcase.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -87,12 +87,6 @@
     <t>Имя вводится</t>
   </si>
   <si>
-    <t xml:space="preserve">Ввести корректное имя </t>
-  </si>
-  <si>
-    <t>Ввести корреткный пароль</t>
-  </si>
-  <si>
     <t>Пароль вводится и закрыт</t>
   </si>
   <si>
@@ -141,22 +135,49 @@
     <t>Открывается окно двухфакторной идентификации (ДИ)</t>
   </si>
   <si>
-    <t>Ввести корректный код ДИ</t>
-  </si>
-  <si>
     <t>Корректный код двухфакторной аутентификации(ДИ): 0000</t>
   </si>
   <si>
     <t>Открывается личный кабинет</t>
   </si>
   <si>
-    <t>В окне входа в ЛК нажать кнопку войти.</t>
-  </si>
-  <si>
     <t>В браузере открывается страница "Информация о банке".</t>
   </si>
   <si>
     <t>ТС2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести невалидное имя </t>
+  </si>
+  <si>
+    <t>Ввести валидный пароль</t>
+  </si>
+  <si>
+    <t>Выводится сообщение "Неверные данные пользователя"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести валидное имя </t>
+  </si>
+  <si>
+    <t>Ввести невалидный пароль</t>
+  </si>
+  <si>
+    <t>Ввести невалидный код ДИ</t>
+  </si>
+  <si>
+    <t>Код вводится</t>
+  </si>
+  <si>
+    <t>В окне ввода ДИ нажать кнопку "Войти".</t>
+  </si>
+  <si>
+    <t>В окне входа в ЛК нажать кнопку "Войти".</t>
+  </si>
+  <si>
+    <t>Выводится сообщение "Неверный код"</t>
+  </si>
+  <si>
+    <t>Ввести валидный код ДИ</t>
   </si>
 </sst>
 </file>
@@ -338,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -396,9 +417,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -414,6 +432,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -695,9 +717,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -747,10 +769,10 @@
       <c r="A2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="22" t="s">
@@ -760,50 +782,50 @@
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A3" s="20"/>
-      <c r="B3" s="27"/>
+      <c r="B3" s="26"/>
       <c r="C3" s="17"/>
-      <c r="D3" s="23"/>
+      <c r="D3" s="17" t="s">
+        <v>36</v>
+      </c>
       <c r="E3" s="15">
         <v>2</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A4" s="20"/>
-      <c r="B4" s="27"/>
+      <c r="B4" s="26"/>
       <c r="C4" s="17"/>
-      <c r="D4" s="24" t="s">
-        <v>17</v>
-      </c>
+      <c r="D4" s="17"/>
       <c r="E4" s="15">
         <v>3</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>15</v>
@@ -812,17 +834,17 @@
     </row>
     <row r="5" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20"/>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="17"/>
-      <c r="D5" s="24"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="15">
         <v>4</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>15</v>
@@ -831,17 +853,17 @@
     </row>
     <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
-      <c r="B6" s="27"/>
+      <c r="B6" s="26"/>
       <c r="C6" s="17"/>
-      <c r="D6" s="24"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="15">
         <v>5</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>15</v>
@@ -850,38 +872,38 @@
     </row>
     <row r="7" spans="1:9" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A7" s="20"/>
-      <c r="B7" s="27"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="17"/>
-      <c r="D7" s="17" t="s">
-        <v>39</v>
+      <c r="D7" s="28" t="s">
+        <v>17</v>
       </c>
       <c r="E7" s="15">
         <v>6</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:9" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
-      <c r="B8" s="27"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
+      <c r="D8" s="28"/>
       <c r="E8" s="15">
         <v>7</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>15</v>
@@ -890,17 +912,17 @@
     </row>
     <row r="9" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20"/>
-      <c r="B9" s="27"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="15">
         <v>8</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>15</v>
@@ -909,36 +931,36 @@
     </row>
     <row r="10" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20"/>
-      <c r="B10" s="27"/>
+      <c r="B10" s="26"/>
       <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="15">
         <v>9</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:9" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="20"/>
-      <c r="B11" s="27"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="15">
         <v>10</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H11" s="13" t="s">
         <v>15</v>
@@ -947,17 +969,17 @@
     </row>
     <row r="12" spans="1:9" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
       <c r="A12" s="20"/>
-      <c r="B12" s="27"/>
+      <c r="B12" s="26"/>
       <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="15">
         <v>11</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>42</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>15</v>
@@ -965,93 +987,235 @@
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="15">
         <v>12</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="H13" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="15">
+        <v>13</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:9" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="15">
+        <v>15</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="G16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="15">
+        <v>12</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="14"/>
+    </row>
+    <row r="19" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="15">
+        <v>13</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="14"/>
+    </row>
+    <row r="20" spans="1:9" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="15">
+        <v>14</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="15">
+        <v>14</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" s="10" customFormat="1" ht="30.15" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="15">
+        <v>14</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="D23" s="11"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="9"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="9"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B28" s="9"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B30" s="9"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="9"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
@@ -1231,9 +1395,36 @@
     <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="9"/>
     </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="9"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="9"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="9"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="9"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="9"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="9"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="9"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="9"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="9"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="https://idemo.bspb.ru/ "/>
@@ -1247,13 +1438,13 @@
           <x14:formula1>
             <xm:f>Лист2!$F$6:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B91</xm:sqref>
+          <xm:sqref>B2:B100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Лист2!$I$6:$I$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H14</xm:sqref>
+          <xm:sqref>H2:H23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
